--- a/laba_2_07/lab_07.xlsx
+++ b/laba_2_07/lab_07.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialuganskaa/laba_3/laba_physics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialuganskaa/laba_3/laba_physics/laba_2_07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C8517C3-6892-C042-A4C7-EAF20C33C8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD72766-E87D-164B-8BDB-C68D83154963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1300" windowWidth="27440" windowHeight="16080" xr2:uid="{7215268A-691F-C745-AB0A-7BB01BAD4DD3}"/>
+    <workbookView xWindow="2000" yWindow="760" windowWidth="27440" windowHeight="16080" activeTab="1" xr2:uid="{7215268A-691F-C745-AB0A-7BB01BAD4DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>№ изм.</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>γij - &lt;γ&gt;, K</t>
+  </si>
+  <si>
+    <t>R0</t>
   </si>
 </sst>
 </file>
@@ -111,8 +114,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="194" formatCode="0.000000000000000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="0.0000000000000000000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -139,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -147,18 +150,189 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -495,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71401C0F-9F30-D541-BD84-14349CA2D6D8}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,42 +679,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>4145</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <f>B2+273</f>
         <v>299</v>
       </c>
@@ -548,25 +722,25 @@
         <f>1/E2</f>
         <v>3.3444816053511705E-3</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="8">
         <f>LN(D2)</f>
         <v>8.3296580675693956</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>4927</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E21" si="0">B3+273</f>
         <v>301</v>
       </c>
@@ -574,25 +748,25 @@
         <f t="shared" ref="F3:F21" si="1">1/E3</f>
         <v>3.3222591362126247E-3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="8">
         <f t="shared" ref="G3:G21" si="2">LN(D3)</f>
         <v>8.5024855625439635</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>30</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1120</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>3782</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>303</v>
       </c>
@@ -600,25 +774,25 @@
         <f t="shared" si="1"/>
         <v>3.3003300330033004E-3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="8">
         <f t="shared" si="2"/>
         <v>8.238008249218403</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>32</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1129</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>3427</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
@@ -626,25 +800,25 @@
         <f t="shared" si="1"/>
         <v>3.2786885245901639E-3</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="8">
         <f t="shared" si="2"/>
         <v>8.139440521874608</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>34</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>1136</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>3124</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>307</v>
       </c>
@@ -652,25 +826,25 @@
         <f t="shared" si="1"/>
         <v>3.2573289902280132E-3</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="8">
         <f t="shared" si="2"/>
         <v>8.046869510959576</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>36</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1143</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>2852</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
@@ -678,25 +852,25 @@
         <f t="shared" si="1"/>
         <v>3.2362459546925568E-3</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="8">
         <f t="shared" si="2"/>
         <v>7.9557757815341867</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>38</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>1150</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>2645</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>311</v>
       </c>
@@ -704,25 +878,25 @@
         <f t="shared" si="1"/>
         <v>3.2154340836012861E-3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="8">
         <f t="shared" si="2"/>
         <v>7.8804263442923999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>40</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>1158</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>2431</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>313</v>
       </c>
@@ -730,25 +904,25 @@
         <f t="shared" si="1"/>
         <v>3.1948881789137379E-3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="8">
         <f t="shared" si="2"/>
         <v>7.7960579743161231</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>42</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>1165</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>2242</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
@@ -756,25 +930,25 @@
         <f t="shared" si="1"/>
         <v>3.1746031746031746E-3</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="8">
         <f t="shared" si="2"/>
         <v>7.7151236036321054</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>44</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>1174</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>2071</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>317</v>
       </c>
@@ -782,25 +956,25 @@
         <f t="shared" si="1"/>
         <v>3.1545741324921135E-3</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="8">
         <f t="shared" si="2"/>
         <v>7.6357868613955846</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>46</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>1182</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>1935</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>319</v>
       </c>
@@ -808,25 +982,25 @@
         <f t="shared" si="1"/>
         <v>3.134796238244514E-3</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="8">
         <f t="shared" si="2"/>
         <v>7.5678626054638825</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>48</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>1189</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>1787</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>321</v>
       </c>
@@ -834,25 +1008,25 @@
         <f t="shared" si="1"/>
         <v>3.1152647975077881E-3</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="8">
         <f t="shared" si="2"/>
         <v>7.4882935151594276</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>50</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>1197</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>1667</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>323</v>
       </c>
@@ -860,25 +1034,25 @@
         <f t="shared" si="1"/>
         <v>3.0959752321981426E-3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="8">
         <f t="shared" si="2"/>
         <v>7.4187808827507942</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>52</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>1204</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>1532</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
@@ -886,25 +1060,25 @@
         <f t="shared" si="1"/>
         <v>3.0769230769230769E-3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="8">
         <f t="shared" si="2"/>
         <v>7.3343293503005365</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>54</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>1210</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>1410</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>327</v>
       </c>
@@ -912,25 +1086,25 @@
         <f t="shared" si="1"/>
         <v>3.0581039755351682E-3</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="8">
         <f t="shared" si="2"/>
         <v>7.2513449833722143</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>56</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>1218</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>1306</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>329</v>
       </c>
@@ -938,25 +1112,25 @@
         <f t="shared" si="1"/>
         <v>3.0395136778115501E-3</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="8">
         <f t="shared" si="2"/>
         <v>7.1747243098363764</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>58</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>1226</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>1221</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>331</v>
       </c>
@@ -964,25 +1138,25 @@
         <f t="shared" si="1"/>
         <v>3.0211480362537764E-3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="8">
         <f t="shared" si="2"/>
         <v>7.1074254741107046</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>60</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>1234</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>1106</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>333</v>
       </c>
@@ -990,25 +1164,25 @@
         <f t="shared" si="1"/>
         <v>3.003003003003003E-3</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="8">
         <f t="shared" si="2"/>
         <v>7.0085051820822803</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>62</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>1242</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>1068</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>335</v>
       </c>
@@ -1016,33 +1190,33 @@
         <f t="shared" si="1"/>
         <v>2.9850746268656717E-3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="8">
         <f t="shared" si="2"/>
         <v>6.9735430195201404</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="10">
         <v>64</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="10">
         <v>1248</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="10">
         <v>997</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="11">
         <f t="shared" si="1"/>
         <v>2.967359050445104E-3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="12">
         <f t="shared" si="2"/>
         <v>6.9047507699618382</v>
       </c>
@@ -1056,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58EE311-64AE-C24F-AFCF-A576E0D2B486}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1065,521 +1239,560 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.83203125" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="17">
         <v>3.11</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <f>Лист1!C4-Лист1!C12</f>
         <v>-62</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <f>Лист1!E4-Лист1!E12</f>
         <v>-16</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <f>B2/C2</f>
         <v>3.875</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <f>D2-$D$12</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="18">
         <f>E2*E2</f>
         <v>1.0000000000000018E-2</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <f>Лист1!G2-Лист1!G11</f>
         <v>0.69387120617381104</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <f>Лист1!F2-Лист1!F11</f>
         <v>1.8990747285905704E-4</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <f>J2/K2</f>
         <v>3653.7330297095732</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <f>L2-L11</f>
         <v>-416.43610088856121</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="8">
         <f>M2*M2</f>
         <v>173419.02612326795</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="17">
         <v>4.12</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <f>Лист1!C5-Лист1!C13</f>
         <v>-60</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <f>Лист1!E5-Лист1!E13</f>
         <v>-16</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D11" si="0">B3/C3</f>
         <v>3.75</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E11" si="1">D3-$D$12</f>
         <v>-2.4999999999999911E-2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="18">
         <f t="shared" ref="F3:F11" si="2">E3*E3</f>
         <v>6.2499999999999557E-4</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <v>2.11</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <f>Лист1!G3-Лист1!G12</f>
         <v>0.93462295708008103</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <f>Лист1!F3-Лист1!F12</f>
         <v>1.8746289796811068E-4</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L10" si="3">J3/K3</f>
+      <c r="L3" s="3">
+        <f>J3/K3</f>
         <v>4985.642317548456</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M10" si="4">L3-L12</f>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M10" si="3">L3-L12</f>
         <v>4985.642317548456</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N10" si="5">M3*M3</f>
+      <c r="N3" s="8">
+        <f t="shared" ref="N3:N10" si="4">M3*M3</f>
         <v>24856629.318529941</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="17">
         <v>5.13</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <f>Лист1!C6-Лист1!C14</f>
         <v>-61</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f>Лист1!E6-Лист1!E14</f>
         <v>-16</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>3.8125</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>3.7500000000000089E-2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="18">
         <f t="shared" si="2"/>
         <v>1.4062500000000067E-3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="17">
         <v>3.12</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <f>Лист1!G4-Лист1!G13</f>
         <v>0.74971473405897537</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <f>Лист1!F4-Лист1!F13</f>
         <v>1.850652354955123E-4</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
+        <f t="shared" ref="L3:L10" si="5">J4/K4</f>
+        <v>4051.0835654876705</v>
+      </c>
+      <c r="M4" s="3">
         <f t="shared" si="3"/>
         <v>4051.0835654876705</v>
       </c>
-      <c r="M4">
+      <c r="N4" s="8">
         <f t="shared" si="4"/>
-        <v>4051.0835654876705</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="5"/>
         <v>16411278.054564297</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="17">
         <v>6.14</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <f>Лист1!C7-Лист1!C15</f>
         <v>-61</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f>Лист1!E7-Лист1!E15</f>
         <v>-16</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>3.8125</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>3.7500000000000089E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="18">
         <f t="shared" si="2"/>
         <v>1.4062500000000067E-3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <v>4.13</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <f>Лист1!G5-Лист1!G14</f>
         <v>0.72065963912381381</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <f>Лист1!F5-Лист1!F14</f>
         <v>1.8271329239202133E-4</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
+        <f t="shared" si="5"/>
+        <v>3944.2102415712552</v>
+      </c>
+      <c r="M5" s="3">
         <f t="shared" si="3"/>
         <v>3944.2102415712552</v>
       </c>
-      <c r="M5">
+      <c r="N5" s="8">
         <f t="shared" si="4"/>
-        <v>3944.2102415712552</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="5"/>
         <v>15556794.429715579</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="17">
         <v>7.15</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <f>Лист1!C8-Лист1!C16</f>
         <v>-60</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f>Лист1!E8-Лист1!E16</f>
         <v>-16</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>-2.4999999999999911E-2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="18">
         <f t="shared" si="2"/>
         <v>6.2499999999999557E-4</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="17">
         <v>5.14</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <f>Лист1!G6-Лист1!G15</f>
         <v>0.71254016065903958</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <f>Лист1!F6-Лист1!F15</f>
         <v>1.8040591330493625E-4</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
+        <f t="shared" si="5"/>
+        <v>3949.6496960975342</v>
+      </c>
+      <c r="M6" s="3">
         <f t="shared" si="3"/>
         <v>3949.6496960975342</v>
       </c>
-      <c r="M6">
+      <c r="N6" s="8">
         <f t="shared" si="4"/>
-        <v>3949.6496960975342</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="5"/>
         <v>15599732.721883344</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="17">
         <v>8.16</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <f>Лист1!C9-Лист1!C17</f>
         <v>-60</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <f>Лист1!E9-Лист1!E17</f>
         <v>-16</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>-2.4999999999999911E-2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="18">
         <f t="shared" si="2"/>
         <v>6.2499999999999557E-4</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <v>6.15</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <f>Лист1!G7-Лист1!G16</f>
         <v>0.7044307981619724</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <f>Лист1!F7-Лист1!F16</f>
         <v>1.7814197915738857E-4</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
+        <f t="shared" si="5"/>
+        <v>3954.3222854822293</v>
+      </c>
+      <c r="M7" s="3">
         <f t="shared" si="3"/>
-        <v>3954.3222854822293</v>
-      </c>
-      <c r="M7">
+        <v>-7279.3445149686213</v>
+      </c>
+      <c r="N7" s="8">
         <f t="shared" si="4"/>
-        <v>-7279.3445149686213</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="5"/>
         <v>52988856.567603752</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="17">
         <v>9.17</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <f>Лист1!C10-Лист1!C18</f>
         <v>-61</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f>Лист1!E10-Лист1!E18</f>
         <v>-16</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>3.8125</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>3.7500000000000089E-2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="18">
         <f t="shared" si="2"/>
         <v>1.4062500000000067E-3</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="17">
         <v>7.16</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <f>Лист1!G8-Лист1!G17</f>
         <v>0.70570203445602342</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <f>Лист1!F8-Лист1!F17</f>
         <v>1.75920405789736E-4</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
+        <f t="shared" si="5"/>
+        <v>4011.4848035281038</v>
+      </c>
+      <c r="M8" s="3">
         <f t="shared" si="3"/>
         <v>4011.4848035281038</v>
       </c>
-      <c r="M8">
+      <c r="N8" s="8">
         <f t="shared" si="4"/>
-        <v>4011.4848035281038</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="5"/>
         <v>16092010.32893691</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="17">
         <v>10.18</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <f>Лист1!C11-Лист1!C19</f>
         <v>-60</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <f>Лист1!E11-Лист1!E19</f>
         <v>-16</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>-2.4999999999999911E-2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="18">
         <f t="shared" si="2"/>
         <v>6.2499999999999557E-4</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <v>8.17</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <f>Лист1!G9-Лист1!G18</f>
         <v>0.68863250020541855</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <f>Лист1!F9-Лист1!F18</f>
         <v>1.7374014265996145E-4</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
+        <f t="shared" si="5"/>
+        <v>3963.5773843767797</v>
+      </c>
+      <c r="M9" s="3">
         <f t="shared" si="3"/>
         <v>3963.5773843767797</v>
       </c>
-      <c r="M9">
+      <c r="N9" s="8">
         <f t="shared" si="4"/>
-        <v>3963.5773843767797</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="5"/>
         <v>15709945.681943074</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>11.19</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <f>Лист1!C12-Лист1!C20</f>
         <v>-60</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <f>Лист1!E12-Лист1!E20</f>
         <v>-16</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>-2.4999999999999911E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="18">
         <f t="shared" si="2"/>
         <v>6.2499999999999557E-4</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="19">
         <v>9.18</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <f>Лист1!G10-Лист1!G19</f>
         <v>0.70661842154982502</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="11">
         <f>Лист1!F10-Лист1!F19</f>
         <v>1.7160017160017162E-4</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="11">
+        <f t="shared" si="5"/>
+        <v>4117.8188515816046</v>
+      </c>
+      <c r="M10" s="11">
         <f t="shared" si="3"/>
         <v>4117.8188515816046</v>
       </c>
-      <c r="M10">
+      <c r="N10" s="12">
         <f t="shared" si="4"/>
-        <v>4117.8188515816046</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="5"/>
         <v>16956432.094440844</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
         <v>12.2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="10">
         <f>Лист1!C13-Лист1!C21</f>
         <v>-59</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="10">
         <f>Лист1!E13-Лист1!E21</f>
         <v>-16</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>3.6875</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="10">
         <f t="shared" si="1"/>
         <v>-8.7499999999999911E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="20">
         <f t="shared" si="2"/>
         <v>7.6562499999999842E-3</v>
       </c>
-      <c r="L11">
+      <c r="I11" s="14"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21">
         <f>AVERAGE(L2:L10)</f>
         <v>4070.1691305981344</v>
       </c>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21">
+        <f>SUM(N2:N10)</f>
+        <v>174345098.22374102</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="D12">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14">
         <f>AVERAGE(D2:D11)</f>
         <v>3.7749999999999999</v>
       </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14">
+        <f>SUM(F2:F11)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f>D12/B15</f>
+        <v>3.7487586891757694E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>1007</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L16" s="4">
+      <c r="F16">
+        <f>F12/90</f>
+        <v>2.7777777777777778E-4</v>
+      </c>
+      <c r="L16" s="23">
         <f>2*L11*1.38</f>
         <v>11233.66680045085</v>
       </c>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1">
+        <f>L16+6242000000000000000</f>
+        <v>6.2420000000000113E+18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
